--- a/extras/sample-form-v1/Timed categories v1 more options sample form.xlsx
+++ b/extras/sample-form-v1/Timed categories v1 more options sample form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max.s.haberman/Documents/SurveyCTO code/Field plug-ins by Max/Finalized/timed-categories/extras/sample-form-v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B05B159-E402-EC43-A26B-227BE7698D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4541D4-CA43-B640-847C-DB484081A3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="520" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28820" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="418">
   <si>
     <t>type</t>
   </si>
@@ -2725,16 +2725,6 @@
 &lt;p&gt;Are you ready to begin?&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;In this field, you can't click/tap the choice column, so you can only select a choice using the keyboard keys.&lt;/p&gt;
-&lt;code&gt;custom-timed-categories(duration=999, allowclick=0)&lt;/code&gt;
-&lt;p&gt;What kind of crop is an apple?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;In this field, you can only click/tap the choice column, and you can't use the keyboard keys.&lt;/p&gt;
-&lt;code&gt;custom-timed-categories(duration=999, allowkeys=0)&lt;/code&gt;
-&lt;p&gt;What kind of crop is a banana?&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;In this field, the keys you can press are hidden, but they still work. Press "E" for "Fruit", or "I" for "Vegetable".&lt;/p&gt;
 &lt;code&gt;custom-timed-categories(duration=999, hidekeys=1)&lt;/code&gt;
 &lt;p&gt;What kind of crop is a carrot?&lt;/p&gt;</t>
@@ -2750,14 +2740,49 @@
 &lt;p&gt;Select your favorite crop&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;In this sample form, we will demonstrate some of the additional features of the timed-categories field plug-in.&lt;/p&gt;
-&lt;p&gt;Times in this field plug-in are extra long so you can take your time to learn more about them. None of them are required, so you can swipe/click to skip ahead.&lt;/p&gt;&lt;p&gt;To learn more about the field plug-in, check out the &lt;a href="https://github.com/surveycto/timed-categories/blob/main/README.md" target="_blank"&gt;readme&lt;/a&gt;. For the main sample form, check out the sample form &lt;a href="https://github.com/surveycto/timed-categories/tree/main/extras/sample-forms/sample-main" target="_blank"&gt;here&lt;/a&gt;, which you can learn more about in the readme.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>Timed categories v1 more options sample form</t>
   </si>
   <si>
     <t>timed_categories_v1_more_options_sample_form</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;In this sample form, we will demonstrate some of the additional features of the timed-categories field plug-in.&lt;/p&gt;
+&lt;br&gt;
+&lt;p&gt;Times in this field plug-in are extra long so you can take your time to learn more about them. None of them are required, so you can swipe/click to skip ahead.&lt;/p&gt;
+&lt;br&gt;
+&lt;p&gt;To learn more about the field plug-in, check out the &lt;a href="https://github.com/surveycto/timed-categories/blob/main/README.md" target="_blank"&gt;readme&lt;/a&gt;. For the main sample form, check out the sample form &lt;a href="https://github.com/surveycto/timed-categories/tree/main/extras/sample-forms/sample-main" target="_blank"&gt;here&lt;/a&gt;, which you can learn more about in the readme.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;In this field, you can only select a choice using the keyboard keys; you can't click/tap the choice column.&lt;/p&gt;
+&lt;code&gt;custom-timed-categories(duration=999, allowclick=0)&lt;/code&gt;
+&lt;p&gt;What kind of crop is a banana?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;In this field, you can only select a choice by clicking/tapping the choice column; you can't use the keyboard keys.&lt;/p&gt;
+&lt;code&gt;custom-timed-categories(duration=999, allowkeys=0)&lt;/code&gt;
+&lt;p&gt;What kind of crop is an apple?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>not_continue</t>
+  </si>
+  <si>
+    <t>custom-timed-categories(duration=999, continue=0)</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Normally, if you leave a field, you can return and continue with the remaining time. In this field, if you leave the field, it is automatically marked as "Pass".&lt;/p&gt;
+&lt;code&gt;custom-timed-categories(duration=999, continue=0)&lt;/code&gt;
+&lt;p&gt;What kind of crop is an eggplant?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>allow_change</t>
+  </si>
+  <si>
+    <t>custom-timed-categories(duration=999, allowchange=0)</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Normally, you are allowed to change your selected choice. In this field, you cannot change your response once it has been selected.&lt;/p&gt;
+&lt;code&gt;custom-timed-categories(duration=999, allowchange=0)&lt;/code&gt;
+&lt;p&gt;What kind of crop is fennel?&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -3071,7 +3096,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3168,12 +3193,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3197,153 +3220,207 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="133">
+  <dxfs count="77">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEEB400"/>
-          <bgColor rgb="FFEEB400"/>
+          <fgColor rgb="FFBA005D"/>
+          <bgColor rgb="FFBA005D"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEEB400"/>
-          <bgColor rgb="FFEEB400"/>
+          <fgColor rgb="FFF2DBDA"/>
+          <bgColor rgb="FFF2DBDA"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
+          <fgColor rgb="FFCCC0D9"/>
+          <bgColor rgb="FFCCC0D9"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
+          <fgColor rgb="FFE3E0CF"/>
+          <bgColor rgb="FFE3E0CF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFABF8F"/>
-          <bgColor rgb="FFFABF8F"/>
+          <fgColor rgb="FFDDE8C6"/>
+          <bgColor rgb="FFDDE8C6"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB8CCE4"/>
-          <bgColor rgb="FFB8CCE4"/>
+          <fgColor rgb="FFE7D480"/>
+          <bgColor rgb="FFE7D480"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF4685D2"/>
-          <bgColor rgb="FF4685D2"/>
+          <fgColor rgb="FFEAF1DD"/>
+          <bgColor rgb="FFEAF1DD"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD6E3BC"/>
-          <bgColor rgb="FFD6E3BC"/>
+          <fgColor rgb="FFFFBB57"/>
+          <bgColor rgb="FFFFBB57"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF2F2F2"/>
-          <bgColor rgb="FFF2F2F2"/>
+          <fgColor rgb="FFFFD44B"/>
+          <bgColor rgb="FFFFD44B"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FF99BCE7"/>
+          <bgColor rgb="FF99BCE7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFC4BD97"/>
-          <bgColor rgb="FFC4BD97"/>
+          <fgColor rgb="FFDBE5F1"/>
+          <bgColor rgb="FFDBE5F1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFC2D69B"/>
-          <bgColor rgb="FFC2D69B"/>
+          <fgColor rgb="FFFBD4B4"/>
+          <bgColor rgb="FFFBD4B4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFDCC97A"/>
-          <bgColor rgb="FFDCC97A"/>
+          <fgColor rgb="FFBA005D"/>
+          <bgColor rgb="FFBA005D"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFE4E300"/>
-          <bgColor rgb="FFE4E300"/>
+          <fgColor rgb="FFE3E0CF"/>
+          <bgColor rgb="FFE3E0CF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB2A1C7"/>
-          <bgColor rgb="FFB2A1C7"/>
+          <fgColor rgb="FFDDE8C6"/>
+          <bgColor rgb="FFDDE8C6"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFE1AAA9"/>
-          <bgColor rgb="FFE1AAA9"/>
+          <fgColor rgb="FFE7D480"/>
+          <bgColor rgb="FFE7D480"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF9E004F"/>
-          <bgColor rgb="FF9E004F"/>
+          <fgColor rgb="FFFFBB57"/>
+          <bgColor rgb="FFFFBB57"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFBFBFBF"/>
-          <bgColor rgb="FFBFBFBF"/>
+          <fgColor rgb="FFF2DBDA"/>
+          <bgColor rgb="FFF2DBDA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCC0D9"/>
+          <bgColor rgb="FFCCC0D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAF1DD"/>
+          <bgColor rgb="FFEAF1DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD44B"/>
+          <bgColor rgb="FFFFD44B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD8D8D8"/>
+          <bgColor rgb="FFD8D8D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFBFB00"/>
+          <bgColor rgb="FFFBFB00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF6969"/>
+          <bgColor rgb="FFFF6969"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3510,24 +3587,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFBA005D"/>
-          <bgColor rgb="FFBA005D"/>
+          <fgColor rgb="FFFBD4B4"/>
+          <bgColor rgb="FFFBD4B4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF2DBDA"/>
-          <bgColor rgb="FFF2DBDA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCC0D9"/>
-          <bgColor rgb="FFCCC0D9"/>
+          <fgColor rgb="FFBA005D"/>
+          <bgColor rgb="FFBA005D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3558,328 +3627,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAF1DD"/>
-          <bgColor rgb="FFEAF1DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFFFBB57"/>
           <bgColor rgb="FFFFBB57"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD44B"/>
-          <bgColor rgb="FFFFD44B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEEB400"/>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEEB400"/>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFABF8F"/>
-          <bgColor rgb="FFFABF8F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB8CCE4"/>
-          <bgColor rgb="FFB8CCE4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF4685D2"/>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD6E3BC"/>
-          <bgColor rgb="FFD6E3BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2F2F2"/>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC4BD97"/>
-          <bgColor rgb="FFC4BD97"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC2D69B"/>
-          <bgColor rgb="FFC2D69B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDCC97A"/>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE4E300"/>
-          <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB2A1C7"/>
-          <bgColor rgb="FFB2A1C7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE1AAA9"/>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9E004F"/>
-          <bgColor rgb="FF9E004F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBFBFBF"/>
-          <bgColor rgb="FFBFBFBF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD8D8D8"/>
-          <bgColor rgb="FFD8D8D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEEB400"/>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEEB400"/>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFABF8F"/>
-          <bgColor rgb="FFFABF8F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB8CCE4"/>
-          <bgColor rgb="FFB8CCE4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF4685D2"/>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD6E3BC"/>
-          <bgColor rgb="FFD6E3BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2F2F2"/>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC4BD97"/>
-          <bgColor rgb="FFC4BD97"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC2D69B"/>
-          <bgColor rgb="FFC2D69B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDCC97A"/>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE4E300"/>
-          <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB2A1C7"/>
-          <bgColor rgb="FFB2A1C7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE1AAA9"/>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9E004F"/>
-          <bgColor rgb="FF9E004F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBFBFBF"/>
-          <bgColor rgb="FFBFBFBF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBA005D"/>
-          <bgColor rgb="FFBA005D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3902,80 +3651,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFBFB00"/>
-          <bgColor rgb="FFFBFB00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE3E0CF"/>
-          <bgColor rgb="FFE3E0CF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDDE8C6"/>
-          <bgColor rgb="FFDDE8C6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE7D480"/>
-          <bgColor rgb="FFE7D480"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF6969"/>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFEAF1DD"/>
           <bgColor rgb="FFEAF1DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99BCE7"/>
-          <bgColor rgb="FF99BCE7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDBE5F1"/>
-          <bgColor rgb="FFDBE5F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFBD4B4"/>
-          <bgColor rgb="FFFBD4B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFBB57"/>
-          <bgColor rgb="FFFFBB57"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3990,6 +3667,22 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFD8D8D8"/>
+          <bgColor rgb="FFD8D8D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFBFB00"/>
+          <bgColor rgb="FFFBFB00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
@@ -3998,8 +3691,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD8D8D8"/>
-          <bgColor rgb="FFD8D8D8"/>
+          <fgColor rgb="FFFF6969"/>
+          <bgColor rgb="FFFF6969"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4152,118 +3845,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFF6D9E"/>
           <bgColor rgb="FFFF6D9E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBA005D"/>
-          <bgColor rgb="FFBA005D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2DBDA"/>
-          <bgColor rgb="FFF2DBDA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCC0D9"/>
-          <bgColor rgb="FFCCC0D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFBFB00"/>
-          <bgColor rgb="FFFBFB00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE3E0CF"/>
-          <bgColor rgb="FFE3E0CF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDDE8C6"/>
-          <bgColor rgb="FFDDE8C6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE7D480"/>
-          <bgColor rgb="FFE7D480"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF6969"/>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAF1DD"/>
-          <bgColor rgb="FFEAF1DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99BCE7"/>
-          <bgColor rgb="FF99BCE7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDBE5F1"/>
-          <bgColor rgb="FFDBE5F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFBD4B4"/>
-          <bgColor rgb="FFFBD4B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFBB57"/>
-          <bgColor rgb="FFFFBB57"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD44B"/>
-          <bgColor rgb="FFFFD44B"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4478,13 +4059,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z987"/>
+  <dimension ref="A1:Z989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5298,25 +4879,25 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="272" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="306" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="39" t="s">
         <v>374</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="53" t="s">
         <v>409</v>
       </c>
-      <c r="D12" s="41"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="39"/>
       <c r="F12" s="39" t="s">
         <v>374</v>
       </c>
       <c r="G12" s="39"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
       <c r="K12" s="39"/>
       <c r="L12" s="39"/>
       <c r="M12" s="39"/>
@@ -5396,7 +4977,7 @@
       <c r="B15" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="54" t="s">
         <v>402</v>
       </c>
       <c r="D15" s="11"/>
@@ -5429,13 +5010,13 @@
       <c r="B16" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>404</v>
+      <c r="C16" s="54" t="s">
+        <v>411</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="9" t="s">
-        <v>397</v>
+      <c r="F16" s="55" t="s">
+        <v>398</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="11"/>
@@ -5455,20 +5036,20 @@
       <c r="V16" s="9"/>
       <c r="W16" s="9"/>
     </row>
-    <row r="17" spans="1:23" ht="85" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>129</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>405</v>
+      <c r="C17" s="54" t="s">
+        <v>410</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
-        <v>398</v>
+      <c r="F17" s="55" t="s">
+        <v>397</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="11"/>
@@ -5495,8 +5076,8 @@
       <c r="B18" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>406</v>
+      <c r="C18" s="54" t="s">
+        <v>404</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="9"/>
@@ -5522,18 +5103,18 @@
       <c r="W18" s="9"/>
     </row>
     <row r="19" spans="1:23" ht="85" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="55" t="s">
         <v>129</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>407</v>
+      <c r="C19" s="54" t="s">
+        <v>405</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="55" t="s">
         <v>400</v>
       </c>
       <c r="G19" s="9"/>
@@ -5554,20 +5135,20 @@
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
     </row>
-    <row r="20" spans="1:23" ht="102" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>408</v>
+    <row r="20" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+      <c r="A20" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>412</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>414</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="9" t="s">
-        <v>401</v>
+      <c r="F20" s="55" t="s">
+        <v>413</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="11"/>
@@ -5587,19 +5168,21 @@
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
     </row>
-    <row r="21" spans="1:23" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>394</v>
+    <row r="21" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+      <c r="A21" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>415</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>417</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="F21" s="55" t="s">
+        <v>416</v>
+      </c>
       <c r="G21" s="9"/>
       <c r="H21" s="11"/>
       <c r="I21" s="9"/>
@@ -5618,13 +5201,21 @@
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="23"/>
+    <row r="22" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>406</v>
+      </c>
       <c r="D22" s="11"/>
       <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>401</v>
+      </c>
       <c r="G22" s="9"/>
       <c r="H22" s="11"/>
       <c r="I22" s="9"/>
@@ -5643,10 +5234,16 @@
       <c r="V22" s="9"/>
       <c r="W22" s="9"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="23"/>
+    <row r="23" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>394</v>
+      </c>
       <c r="D23" s="11"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -29768,180 +29365,180 @@
       <c r="V987" s="9"/>
       <c r="W987" s="9"/>
     </row>
+    <row r="988" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A988" s="9"/>
+      <c r="B988" s="9"/>
+      <c r="C988" s="23"/>
+      <c r="D988" s="11"/>
+      <c r="E988" s="9"/>
+      <c r="F988" s="9"/>
+      <c r="G988" s="9"/>
+      <c r="H988" s="11"/>
+      <c r="I988" s="9"/>
+      <c r="J988" s="9"/>
+      <c r="K988" s="9"/>
+      <c r="L988" s="9"/>
+      <c r="M988" s="9"/>
+      <c r="N988" s="9"/>
+      <c r="O988" s="9"/>
+      <c r="P988" s="9"/>
+      <c r="Q988" s="9"/>
+      <c r="R988" s="9"/>
+      <c r="S988" s="9"/>
+      <c r="T988" s="9"/>
+      <c r="U988" s="9"/>
+      <c r="V988" s="9"/>
+      <c r="W988" s="9"/>
+    </row>
+    <row r="989" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A989" s="9"/>
+      <c r="B989" s="9"/>
+      <c r="C989" s="23"/>
+      <c r="D989" s="11"/>
+      <c r="E989" s="9"/>
+      <c r="F989" s="9"/>
+      <c r="G989" s="9"/>
+      <c r="H989" s="11"/>
+      <c r="I989" s="9"/>
+      <c r="J989" s="9"/>
+      <c r="K989" s="9"/>
+      <c r="L989" s="9"/>
+      <c r="M989" s="9"/>
+      <c r="N989" s="9"/>
+      <c r="O989" s="9"/>
+      <c r="P989" s="9"/>
+      <c r="Q989" s="9"/>
+      <c r="R989" s="9"/>
+      <c r="S989" s="9"/>
+      <c r="T989" s="9"/>
+      <c r="U989" s="9"/>
+      <c r="V989" s="9"/>
+      <c r="W989" s="9"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:C987 I1:I987 F1:F987">
-    <cfRule type="expression" dxfId="132" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="A1:W989">
+    <cfRule type="expression" dxfId="76" priority="15" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A1, 14)="sensor_stream ", LEN($A1)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A1, 15)))), AND(LEFT($A1, 17)="sensor_statistic ", LEN($A1)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A1, 18)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="16" stopIfTrue="1">
+      <formula>$A1="comments"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="17" stopIfTrue="1">
+      <formula>OR($A1="audio", $A1="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="18" stopIfTrue="1">
+      <formula>$A1="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="19" stopIfTrue="1">
+      <formula>OR($A1="date", $A1="datetime")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="20" stopIfTrue="1">
+      <formula>OR($A1="calculate", $A1="calculate_here")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="21" stopIfTrue="1">
+      <formula>$A1="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="22" stopIfTrue="1">
+      <formula>$A1="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="23" stopIfTrue="1">
+      <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="24" stopIfTrue="1">
+      <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="25" stopIfTrue="1">
+      <formula>OR($A1="username", $A1="phonenumber", $A1="start", $A1="end", $A1="deviceid", $A1="subscriberid", $A1="simserial", $A1="caseid")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="26" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="27" stopIfTrue="1">
+      <formula>$A1="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="28" stopIfTrue="1">
+      <formula>$A1="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="29" stopIfTrue="1">
+      <formula>$A1="text"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="30" stopIfTrue="1">
+      <formula>$A1="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="31" stopIfTrue="1">
+      <formula>$A1="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="32" stopIfTrue="1">
+      <formula>$A1="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="33" stopIfTrue="1">
       <formula>$A1="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C987 O1:O987 I1:I987">
-    <cfRule type="expression" dxfId="131" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:B989 F1:F989">
+    <cfRule type="expression" dxfId="57" priority="7" stopIfTrue="1">
+      <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="35" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A1, 14)="sensor_stream ", LEN($A1)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A1, 15)))), AND(LEFT($A1, 17)="sensor_statistic ", LEN($A1)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A1, 18)))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B989 N1:N989">
+    <cfRule type="expression" dxfId="55" priority="11" stopIfTrue="1">
+      <formula>OR($A1="calculate", $A1="calculate_here")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B989">
+    <cfRule type="expression" dxfId="54" priority="34" stopIfTrue="1">
+      <formula>$A1="comments"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:C989 F1:F989 I1:I989">
+    <cfRule type="expression" dxfId="53" priority="1" stopIfTrue="1">
+      <formula>$A1="begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:C989 F1:F989">
+    <cfRule type="expression" dxfId="52" priority="6" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="12" stopIfTrue="1">
+      <formula>OR($A1="date", $A1="datetime")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="13" stopIfTrue="1">
+      <formula>$A1="image"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:C989 I1:I989 O1:O989">
+    <cfRule type="expression" dxfId="49" priority="2" stopIfTrue="1">
       <formula>$A1="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:D987 F1:F987">
-    <cfRule type="expression" dxfId="130" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:C989">
+    <cfRule type="expression" dxfId="48" priority="8" stopIfTrue="1">
+      <formula>$A1="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="9" stopIfTrue="1">
+      <formula>$A1="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="10" stopIfTrue="1">
+      <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="14" stopIfTrue="1">
+      <formula>OR($A1="audio", $A1="video")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:D989 F1:F989">
+    <cfRule type="expression" dxfId="44" priority="3" stopIfTrue="1">
       <formula>$A1="text"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:D987 G1:H987">
-    <cfRule type="expression" dxfId="129" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:D989 G1:H989">
+    <cfRule type="expression" dxfId="43" priority="4" stopIfTrue="1">
       <formula>$A1="integer"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:D987 G1:H987">
-    <cfRule type="expression" dxfId="128" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="5" stopIfTrue="1">
       <formula>$A1="decimal"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C987 F1:F987">
-    <cfRule type="expression" dxfId="127" priority="6" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F987 B1:B987">
-    <cfRule type="expression" dxfId="126" priority="7" stopIfTrue="1">
-      <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C987">
-    <cfRule type="expression" dxfId="125" priority="8" stopIfTrue="1">
-      <formula>$A1="note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C987">
-    <cfRule type="expression" dxfId="124" priority="9" stopIfTrue="1">
-      <formula>$A1="barcode"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C987">
-    <cfRule type="expression" dxfId="123" priority="10" stopIfTrue="1">
-      <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N987 B1:B987">
-    <cfRule type="expression" dxfId="122" priority="11" stopIfTrue="1">
-      <formula>OR($A1="calculate", $A1="calculate_here")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C987 F1:F987">
-    <cfRule type="expression" dxfId="121" priority="12" stopIfTrue="1">
-      <formula>OR($A1="date", $A1="datetime")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C987 F1:F987">
-    <cfRule type="expression" dxfId="120" priority="13" stopIfTrue="1">
-      <formula>$A1="image"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C987">
-    <cfRule type="expression" dxfId="119" priority="14" stopIfTrue="1">
-      <formula>OR($A1="audio", $A1="video")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W987">
-    <cfRule type="expression" dxfId="118" priority="15" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A1, 14)="sensor_stream ", LEN($A1)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A1, 15)))), AND(LEFT($A1, 17)="sensor_statistic ", LEN($A1)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A1, 18)))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W987">
-    <cfRule type="expression" dxfId="117" priority="16" stopIfTrue="1">
-      <formula>$A1="comments"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W987">
-    <cfRule type="expression" dxfId="116" priority="17" stopIfTrue="1">
-      <formula>OR($A1="audio", $A1="video")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W987">
-    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
-      <formula>$A1="image"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W987">
-    <cfRule type="expression" dxfId="114" priority="19" stopIfTrue="1">
-      <formula>OR($A1="date", $A1="datetime")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W987">
-    <cfRule type="expression" dxfId="113" priority="20" stopIfTrue="1">
-      <formula>OR($A1="calculate", $A1="calculate_here")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W987">
-    <cfRule type="expression" dxfId="112" priority="21" stopIfTrue="1">
-      <formula>$A1="note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W987">
-    <cfRule type="expression" dxfId="111" priority="22" stopIfTrue="1">
-      <formula>$A1="barcode"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W987">
-    <cfRule type="expression" dxfId="110" priority="23" stopIfTrue="1">
-      <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W987">
-    <cfRule type="expression" dxfId="109" priority="24" stopIfTrue="1">
-      <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W987">
-    <cfRule type="expression" dxfId="108" priority="25" stopIfTrue="1">
-      <formula>OR($A1="username", $A1="phonenumber", $A1="start", $A1="end", $A1="deviceid", $A1="subscriberid", $A1="simserial", $A1="caseid")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W987">
-    <cfRule type="expression" dxfId="107" priority="26" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W987">
-    <cfRule type="expression" dxfId="106" priority="27" stopIfTrue="1">
-      <formula>$A1="decimal"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W987">
-    <cfRule type="expression" dxfId="105" priority="28" stopIfTrue="1">
-      <formula>$A1="integer"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W987">
-    <cfRule type="expression" dxfId="104" priority="29" stopIfTrue="1">
-      <formula>$A1="text"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W987">
-    <cfRule type="expression" dxfId="103" priority="30" stopIfTrue="1">
-      <formula>$A1="end repeat"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W987">
-    <cfRule type="expression" dxfId="102" priority="31" stopIfTrue="1">
-      <formula>$A1="begin repeat"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W987">
-    <cfRule type="expression" dxfId="101" priority="32" stopIfTrue="1">
-      <formula>$A1="end group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W987">
-    <cfRule type="expression" dxfId="100" priority="33" stopIfTrue="1">
-      <formula>$A1="begin group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B987">
-    <cfRule type="expression" dxfId="99" priority="34" stopIfTrue="1">
-      <formula>$A1="comments"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B987 F1:F987">
-    <cfRule type="expression" dxfId="98" priority="35" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A1, 14)="sensor_stream ", LEN($A1)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A1, 15)))), AND(LEFT($A1, 17)="sensor_statistic ", LEN($A1)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A1, 18)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0" footer="0"/>
@@ -29955,7 +29552,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -37230,15 +36827,15 @@
       <c r="Z1" s="7"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
-        <v>410</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>411</v>
+      <c r="A2" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>408</v>
       </c>
       <c r="C2" s="10" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2312161652</v>
+        <v>2312172226</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>38</v>
@@ -44610,494 +44207,152 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A83:B83"/>
   </mergeCells>
-  <conditionalFormatting sqref="B5:C5 H5 L5">
-    <cfRule type="expression" dxfId="97" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="A5:AD5">
+    <cfRule type="expression" dxfId="41" priority="15" stopIfTrue="1">
+      <formula>$A5="comments"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="16" stopIfTrue="1">
+      <formula>OR($A5="audio", $A5="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="17" stopIfTrue="1">
+      <formula>$A5="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="18" stopIfTrue="1">
+      <formula>OR($A5="date", $A5="datetime")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="19" stopIfTrue="1">
+      <formula>OR($A5="calculate", $A5="calculate_here")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="20" stopIfTrue="1">
+      <formula>$A5="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="21" stopIfTrue="1">
+      <formula>$A5="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="22" stopIfTrue="1">
+      <formula>$A5="geopoint"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="23" stopIfTrue="1">
+      <formula>OR($A5="audio audit", $A5="text audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="24" stopIfTrue="1">
+      <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="25" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="26" stopIfTrue="1">
+      <formula>$A5="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="27" stopIfTrue="1">
+      <formula>$A5="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="28" stopIfTrue="1">
+      <formula>$A5="text"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="29" stopIfTrue="1">
+      <formula>$A5="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="30" stopIfTrue="1">
+      <formula>$A5="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="31" stopIfTrue="1">
+      <formula>$A5="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="32" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B5 H5">
+    <cfRule type="expression" dxfId="23" priority="7" stopIfTrue="1">
+      <formula>OR($A5="audio audit", $A5="text audit")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5 R5">
+    <cfRule type="expression" dxfId="22" priority="11" stopIfTrue="1">
+      <formula>OR($A5="calculate", $A5="calculate_here")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="21" priority="33" stopIfTrue="1">
+      <formula>$A5="comments"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:C5 H5 L5">
+    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
+      <formula>$A5="begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:C5 H5">
+    <cfRule type="expression" dxfId="19" priority="6" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="12" stopIfTrue="1">
+      <formula>OR($A5="date", $A5="datetime")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
+      <formula>$A5="image"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 L5 S5">
-    <cfRule type="expression" dxfId="96" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5 B5:F5">
-    <cfRule type="expression" dxfId="95" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="B5:C5">
+    <cfRule type="expression" dxfId="15" priority="8" stopIfTrue="1">
+      <formula>$A5="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="9" stopIfTrue="1">
+      <formula>$A5="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="10" stopIfTrue="1">
+      <formula>$A5="geopoint"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+      <formula>OR($A5="audio", $A5="video")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:F5 H5">
+    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:J5 B5:F5">
-    <cfRule type="expression" dxfId="94" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="B5:F5 I5:K5">
+    <cfRule type="expression" dxfId="10" priority="4" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:J5 B5:F5">
-    <cfRule type="expression" dxfId="93" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="92" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="8" priority="52" stopIfTrue="1">
+      <formula>$A5="begin group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="53" stopIfTrue="1">
+      <formula>$A5="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="54" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5 H5">
-    <cfRule type="expression" dxfId="91" priority="7" stopIfTrue="1">
-      <formula>OR($A5="audio audit", $A5="text audit")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="90" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="55" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="89" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="56" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="88" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="57" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5 R5">
-    <cfRule type="expression" dxfId="87" priority="11" stopIfTrue="1">
-      <formula>OR($A5="calculate", $A5="calculate_here")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="86" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="58" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="85" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="59" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="84" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="60" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="83" priority="15" stopIfTrue="1">
-      <formula>$A5="comments"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="82" priority="16" stopIfTrue="1">
-      <formula>OR($A5="audio", $A5="video")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="81" priority="17" stopIfTrue="1">
-      <formula>$A5="image"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="80" priority="18" stopIfTrue="1">
-      <formula>OR($A5="date", $A5="datetime")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="79" priority="19" stopIfTrue="1">
-      <formula>OR($A5="calculate", $A5="calculate_here")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="78" priority="20" stopIfTrue="1">
-      <formula>$A5="note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="77" priority="21" stopIfTrue="1">
-      <formula>$A5="barcode"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="76" priority="22" stopIfTrue="1">
-      <formula>$A5="geopoint"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="75" priority="23" stopIfTrue="1">
-      <formula>OR($A5="audio audit", $A5="text audit")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="74" priority="24" stopIfTrue="1">
-      <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="73" priority="25" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="72" priority="26" stopIfTrue="1">
-      <formula>$A5="decimal"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="71" priority="27" stopIfTrue="1">
-      <formula>$A5="integer"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="70" priority="28" stopIfTrue="1">
-      <formula>$A5="text"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="69" priority="29" stopIfTrue="1">
-      <formula>$A5="end repeat"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="68" priority="30" stopIfTrue="1">
-      <formula>$A5="begin repeat"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="67" priority="31" stopIfTrue="1">
-      <formula>$A5="end group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="66" priority="32" stopIfTrue="1">
-      <formula>$A5="begin group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="65" priority="33" stopIfTrue="1">
-      <formula>$A5="comments"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="64" priority="34" stopIfTrue="1">
-      <formula>$A5="comments"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="63" priority="35" stopIfTrue="1">
-      <formula>OR($A5="audio", $A5="video")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="62" priority="36" stopIfTrue="1">
-      <formula>$A5="image"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="61" priority="37" stopIfTrue="1">
-      <formula>OR($A5="date", $A5="datetime")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="60" priority="38" stopIfTrue="1">
-      <formula>OR($A5="calculate", $A5="calculate_here")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="59" priority="39" stopIfTrue="1">
-      <formula>$A5="note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="58" priority="40" stopIfTrue="1">
-      <formula>$A5="barcode"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="57" priority="41" stopIfTrue="1">
-      <formula>$A5="geopoint"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="56" priority="42" stopIfTrue="1">
-      <formula>OR($A5="audio audit", $A5="text audit")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="55" priority="43" stopIfTrue="1">
-      <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="54" priority="44" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="53" priority="45" stopIfTrue="1">
-      <formula>$A5="decimal"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="52" priority="46" stopIfTrue="1">
-      <formula>$A5="integer"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="51" priority="47" stopIfTrue="1">
-      <formula>$A5="text"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="50" priority="48" stopIfTrue="1">
-      <formula>$A5="end repeat"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="49" priority="49" stopIfTrue="1">
-      <formula>$A5="begin repeat"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="48" priority="50" stopIfTrue="1">
-      <formula>$A5="end group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="47" priority="51" stopIfTrue="1">
-      <formula>$A5="begin group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="46" priority="52" stopIfTrue="1">
-      <formula>$A5="begin group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="45" priority="53" stopIfTrue="1">
-      <formula>$A5="begin repeat"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="44" priority="54" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="43" priority="55" stopIfTrue="1">
-      <formula>$A5="note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="42" priority="56" stopIfTrue="1">
-      <formula>$A5="barcode"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="41" priority="57" stopIfTrue="1">
-      <formula>$A5="geopoint"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="40" priority="58" stopIfTrue="1">
-      <formula>OR($A5="date", $A5="datetime")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="39" priority="59" stopIfTrue="1">
-      <formula>$A5="image"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="38" priority="60" stopIfTrue="1">
-      <formula>OR($A5="audio", $A5="video")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="37" priority="61" stopIfTrue="1">
-      <formula>$A5="integer"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="36" priority="62" stopIfTrue="1">
-      <formula>$A5="decimal"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="35" priority="63" stopIfTrue="1">
-      <formula>$A5="comments"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="34" priority="64" stopIfTrue="1">
-      <formula>OR($A5="audio", $A5="video")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="33" priority="65" stopIfTrue="1">
-      <formula>$A5="image"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="32" priority="66" stopIfTrue="1">
-      <formula>OR($A5="date", $A5="datetime")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="31" priority="67" stopIfTrue="1">
-      <formula>OR($A5="calculate", $A5="calculate_here")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="30" priority="68" stopIfTrue="1">
-      <formula>$A5="note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="29" priority="69" stopIfTrue="1">
-      <formula>$A5="barcode"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="28" priority="70" stopIfTrue="1">
-      <formula>$A5="geopoint"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="27" priority="71" stopIfTrue="1">
-      <formula>OR($A5="audio audit", $A5="text audit")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="26" priority="72" stopIfTrue="1">
-      <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="25" priority="73" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="24" priority="74" stopIfTrue="1">
-      <formula>$A5="decimal"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="23" priority="75" stopIfTrue="1">
-      <formula>$A5="integer"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="22" priority="76" stopIfTrue="1">
-      <formula>$A5="text"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="21" priority="77" stopIfTrue="1">
-      <formula>$A5="end repeat"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="20" priority="78" stopIfTrue="1">
-      <formula>$A5="begin repeat"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="19" priority="79" stopIfTrue="1">
-      <formula>$A5="end group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="18" priority="80" stopIfTrue="1">
-      <formula>$A5="begin group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="17" priority="81" stopIfTrue="1">
-      <formula>$A5="comments"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="16" priority="82" stopIfTrue="1">
-      <formula>OR($A5="audio", $A5="video")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="15" priority="83" stopIfTrue="1">
-      <formula>$A5="image"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="14" priority="84" stopIfTrue="1">
-      <formula>OR($A5="date", $A5="datetime")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="13" priority="85" stopIfTrue="1">
-      <formula>OR($A5="calculate", $A5="calculate_here")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="12" priority="86" stopIfTrue="1">
-      <formula>$A5="note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="11" priority="87" stopIfTrue="1">
-      <formula>$A5="barcode"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="10" priority="88" stopIfTrue="1">
-      <formula>$A5="geopoint"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="9" priority="89" stopIfTrue="1">
-      <formula>OR($A5="audio audit", $A5="text audit")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="8" priority="90" stopIfTrue="1">
-      <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="7" priority="91" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="6" priority="92" stopIfTrue="1">
-      <formula>$A5="decimal"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="5" priority="93" stopIfTrue="1">
-      <formula>$A5="integer"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="4" priority="94" stopIfTrue="1">
-      <formula>$A5="text"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="3" priority="95" stopIfTrue="1">
-      <formula>$A5="end repeat"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="2" priority="96" stopIfTrue="1">
-      <formula>$A5="begin repeat"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="1" priority="97" stopIfTrue="1">
-      <formula>$A5="end group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="0" priority="98" stopIfTrue="1">
-      <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
